--- a/jpcore-r4/develop/StructureDefinition-JP-CarePlan.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-CarePlan.xlsx
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}</t>
+dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -178,10 +178,10 @@
     <t>このアーティファクトの論理ID</t>
   </si>
   <si>
-    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
-  </si>
-  <si>
-    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
+    <t>リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -194,7 +194,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースに関するメタデータ」</t>
+    <t>リソースに関するメタデータ</t>
   </si>
   <si>
     <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
@@ -240,7 +240,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
+    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -260,7 +260,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
+ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>CarePlan.meta.versionId</t>
@@ -285,7 +285,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースのバージョンが最後に変更されたとき」</t>
+    <t>リソースのバージョンが最後に変更されたとき</t>
   </si>
   <si>
     <t>リソースが最後に変更されたとき - 例えば、バージョンが変更されたとき。</t>
@@ -310,8 +310,8 @@
     <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
   </si>
   <si>
-    <t>「プロバナンスのリソースにおいて、これはProvenance.entity.what[x]に対応します。ソースの正確な使用方法（および含意されるProvenance.entity.role）は実装者の判断に委ねられます。指定されたソースは1つだけです。追加のプロバナンスの詳細が必要な場合は、完全なプロバナンスリソースを使用するべきです。
-この要素は、正規のURLでホストされていないリソースの現在のマスターソースがどこにあるかを示すために使用できます。」</t>
+    <t>プロバナンスのリソースにおいて、これはProvenance.entity.what[x]に対応します。ソースの正確な使用方法（および含意されるProvenance.entity.role）は実装者の判断に委ねられます。指定されたソースは1つだけです。追加のプロバナンスの詳細が必要な場合は、完全なプロバナンスリソースを使用するべきです。
+この要素は、正規のURLでホストされていないリソースの現在のマスターソースがどこにあるかを示すために使用できます。</t>
   </si>
   <si>
     <t>Meta.source</t>
@@ -379,7 +379,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>「様々なタグを表すコードで、一般的にはワークフローに関連しています。例：「ジョーンズ博士によるレビューが必要です」。」</t>
+    <t>様々なタグを表すコードで、一般的にはワークフローに関連しています。例：「ジョーンズ博士によるレビューが必要です」。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/common-tags</t>
@@ -394,7 +394,7 @@
     <t>このコンテンツが作成されたルールセット</t>
   </si>
   <si>
-    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
+    <t>リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。</t>
   </si>
   <si>
     <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
@@ -413,7 +413,7 @@
     <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
   </si>
   <si>
-    <t>「リソースが書かれている基本言語。」</t>
+    <t>リソースが書かれている基本言語。</t>
   </si>
   <si>
     <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
@@ -442,10 +442,10 @@
 </t>
   </si>
   <si>
-    <t>「人間の解釈のためのリソースのテキスト要約」</t>
-  </si>
-  <si>
-    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
+    <t>人間の解釈のためのリソースのテキスト要約</t>
+  </si>
+  <si>
+    <t>リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。</t>
   </si>
   <si>
     <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
@@ -471,10 +471,10 @@
     <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
   </si>
   <si>
-    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
-  </si>
-  <si>
-    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
+    <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
+  </si>
+  <si>
+    <t>コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -486,7 +486,7 @@
     <t>CarePlan.extension</t>
   </si>
   <si>
-    <t>「リソースの基本的な定義の一部ではない追加情報を表すために使用することができます。拡張機能の使用を安全かつ管理可能にするために、定義と使用の一定のガバナンスが適用されます。実装者はどんな拡張機能でも定義できますが、拡張機能の定義の一部として満たす必要がある要件があります」</t>
+    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用することができます。拡張機能の使用を安全かつ管理可能にするために、定義と使用の一定のガバナンスが適用されます。実装者はどんな拡張機能でも定義できますが、拡張機能の定義の一部として満たす必要がある要件があります</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -498,7 +498,7 @@
     <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
   </si>
   <si>
-    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
+    <t>リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -514,10 +514,10 @@
 </t>
   </si>
   <si>
-    <t>「このプランの外部ID」</t>
-  </si>
-  <si>
-    <t>「パフォーマーまたはその他のシステムによって割り当てられたこのケアプランのビジネス識別子は、リソースが更新され、サーバからサーバへ伝播する際に一定のままであります。」</t>
+    <t>このプランの外部ID</t>
+  </si>
+  <si>
+    <t>パフォーマーまたはその他のシステムによって割り当てられたこのケアプランのビジネス識別子は、リソースが更新され、サーバからサーバへ伝播する際に一定のままであります。</t>
   </si>
   <si>
     <t>これはビジネス識別子であり、リソース識別子ではありません（[discussion]（resource.html＃identifiers）を参照）。 識別子が単一のリソースインスタンスにのみ表示されることが最善の方法ですが、ビジネス上の実践によっては、同じ識別子を持つ複数のリソースインスタンスが存在する場合があります。 たとえば、複数の患者と個人リソースインスタンスが同じ社会保険番号を共有する場合があります。</t>
@@ -583,7 +583,7 @@
 </t>
   </si>
   <si>
-    <t>「ケアプランを実行する」(Kea puran wo jikkou suru)</t>
+    <t>ケアプランを実行する</t>
   </si>
   <si>
     <t>このケアプランによって全体または一部が満たされるケアプラン。 (Kono keapuran ni yotte zentai matawa ichibu ga mitasareru keapuran.)</t>
@@ -608,7 +608,7 @@
     <t>この新しい介護計画によって機能が引き継がれた完了または終了した介護計画。</t>
   </si>
   <si>
-    <t>「置き換えは、最初の介護計画が即座に拒否されたためか（何か問題があったため）前の介護計画が完了したが、介護計画で説明されたアクションのニーズが継続しているためかもしれません。」</t>
+    <t>置き換えは、最初の介護計画が即座に拒否されたためか（何か問題があったため）前の介護計画が完了したが、介護計画で説明されたアクションのニーズが継続しているためかもしれません。</t>
   </si>
   <si>
     <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple care plans.</t>
@@ -623,7 +623,7 @@
     <t>参照されたCarePlanの一部</t>
   </si>
   <si>
-    <t>「この特定の介護計画が構成要素またはステップである、より大規模な介護計画」</t>
+    <t>この特定の介護計画が構成要素またはステップである、より大規模な介護計画</t>
   </si>
   <si>
     <t>それぞれのケアプランは独立したリクエストであり、他のケアプランの一部になることが問題を引き起こすことがあるため、この要素についてはまだ議論中です。</t>
@@ -635,7 +635,7 @@
     <t>下書き| アクティブ| 保留中| 取り消された| 完了| エラーで入力| 不明</t>
   </si>
   <si>
-    <t>「計画が実行中か、将来の意図を表しているか、現在歴史的記録であるかを示します。」</t>
+    <t>計画が実行中か、将来の意図を表しているか、現在歴史的記録であるかを示します。</t>
   </si>
   <si>
     <t>未知のコードは、他のステータスを伝えるために使用されるべきではありません。未知のコードは、ステータスの1つが適用されるときに使用されるべきですが、作成システムがケアプランの現在の状態を知らない場合にも使用されます。
@@ -669,7 +669,7 @@
     <t>提案 | 計画 | 注文 | オプション</t>
   </si>
   <si>
-    <t>「ケアプランに関連する権限/意図のレベルを示し、ケアプランがワークフローチェーンにどのようにフィットするかを示します。」</t>
+    <t>ケアプランに関連する権限/意図のレベルを示し、ケアプランがワークフローチェーンにどのようにフィットするかを示します。</t>
   </si>
   <si>
     <t>この要素は修飾子としてラベル付けされています。なぜなら、意図が変わり、リソースが実際に適用可能な場合と方法が変わるからです。</t>
@@ -678,7 +678,7 @@
     <t>Proposals/recommendations, plans and orders all use the same structure and can exist in the same fulfillment chain.</t>
   </si>
   <si>
-    <t>「看護計画に関連する権限/意図の程度を示すコード」</t>
+    <t>看護計画に関連する権限/意図の程度を示すコード</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/care-plan-intent|4.0.1</t>
@@ -775,7 +775,7 @@
 </t>
   </si>
   <si>
-    <t>「一部として作成されたEncounter（診察、受診、入退院など）」</t>
+    <t>一部として作成されたEncounter（診察、受診、入退院など）</t>
   </si>
   <si>
     <t>このCarePlanが作成されたEncounter（診察、受診、入退院など）、またはこの記録の作成に密接に関係するEncounter（診察、受診、入退院など）。</t>
@@ -807,13 +807,13 @@
 </t>
   </si>
   <si>
-    <t>「時間期間プランがカバーされています」</t>
+    <t>時間期間プランがカバーされています</t>
   </si>
   <si>
     <t>計画が（実行される予定である）開始時期と終了時期を示します。</t>
   </si>
   <si>
-    <t>「計画の一部として予定された任意のアクティビティは、単一のエンカウンタ/エピソード内で計画されたものであるか、複数のエンカウンタ/エピソードにわたって計画されたものであるかに関係なく、指定された期間内に制約される必要があります（例えば、慢性疾患の長期管理）。」</t>
+    <t>計画の一部として予定された任意のアクティビティは、単一のエンカウンタ/エピソード内で計画されたものであるか、複数のエンカウンタ/エピソードにわたって計画されたものであるかに関係なく、指定された期間内に制約される必要があります（例えば、慢性疾患の長期管理）。</t>
   </si>
   <si>
     <t>Allows tracking what plan(s) are in effect at a particular time.</t>
@@ -842,7 +842,7 @@
 </t>
   </si>
   <si>
-    <t>「日付記録が最初に記録された。」</t>
+    <t>日付記録が最初に記録された。</t>
   </si>
   <si>
     <t>「これは特定のCarePlanレコードがシステム内で作成された日を表します。これはしばしばシステムが生成した日付です。」(Kore wa tokutei no CarePlan rekōdo ga shisutemu nai de sakusei sareda hi o hyō shimasu. Kore wa shibashiba shisutemu ga seisei shita hidzuke desu.)</t>
@@ -885,7 +885,7 @@
     <t>「誰がケアプランの内容を提供しましたか？」(Dare ga kea puran no naiyou wo teikyou shimashita ka?)</t>
   </si>
   <si>
-    <t>「介護プランの内容を提供した個人または組織を特定する。」</t>
+    <t>介護プランの内容を提供した個人または組織を特定する。</t>
   </si>
   <si>
     <t>共同ケアプランには複数の貢献者がいる場合があります。</t>
@@ -898,10 +898,10 @@
 </t>
   </si>
   <si>
-    <t>「この計画に誰が関わっているのですか？」</t>
-  </si>
-  <si>
-    <t>「この計画によって想定されるケアに関与するすべての人々や組織を特定する。」</t>
+    <t>この計画に誰が関わっているのですか？</t>
+  </si>
+  <si>
+    <t>この計画によって想定されるケアに関与するすべての人々や組織を特定する。</t>
   </si>
   <si>
     <t>Allows representation of care teams, helps scope care plan.  In some cases may be a determiner of access permissions.</t>
@@ -920,7 +920,7 @@
 </t>
   </si>
   <si>
-    <t>「この計画が対処する健康上の問題」</t>
+    <t>この計画が対処する健康上の問題</t>
   </si>
   <si>
     <t>この計画で管理および軽減の対象となる状況、問題、懸念、診断等を特定する。</t>
@@ -954,10 +954,10 @@
     <t>"計画の一部として考慮される情報" (Keikaku no ichibu toshite kouryo sareru joho)</t>
   </si>
   <si>
-    <t>「計画の形成に特定に影響を与えた患者の記録の部分を特定します。これらには、共存疾患、最近の手術、制限、最近の評価などが含まれます。」</t>
-  </si>
-  <si>
-    <t>「ケアプランで取り扱われる特定の状態を識別するために"concern"を使用してください。」</t>
+    <t>計画の形成に特定に影響を与えた患者の記録の部分を特定します。これらには、共存疾患、最近の手術、制限、最近の評価などが含まれます。</t>
+  </si>
+  <si>
+    <t>ケアプランで取り扱われる特定の状態を識別するために"concern"を使用してください。</t>
   </si>
   <si>
     <t>Identifies barriers and other considerations associated with the care plan.</t>
@@ -976,7 +976,7 @@
     <t>計画の望まれる結果 (Keikaku no nozomareru kekka)</t>
   </si>
   <si>
-    <t>「介護計画を実行することで意図される目標を説明する。」</t>
+    <t>介護計画を実行することで意図される目標を説明する。</t>
   </si>
   <si>
     <t>目標は特定の変化を達成することであったり、現状を維持することであったり、衰退を遅らせることであることもある。</t>
@@ -1007,7 +1007,7 @@
     <t>Allows systems to prompt for performance of planned activities, and validate plans against best practice.</t>
   </si>
   <si>
-    <t>cpl-3:「参照文献または詳細を提供してください。両方は不要です。」 {detail.empty() or reference.empty()}
+    <t>cpl-3:参照文献または詳細を提供してください。両方は不要です。 {detail.empty() or reference.empty()}
 ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
@@ -1031,11 +1031,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
-  </si>
-  <si>
-    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
-修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
+    <t>認識されなくても無視できない拡張機能</t>
+  </si>
+  <si>
+    <t>基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1050,7 +1050,7 @@
     <t>活動の状況が評価された時点での結果を特定します。例えば、教育活動の結果は患者が理解したかどうかです。</t>
   </si>
   <si>
-    <t>「これは活動の状態を複製してはいけないことに注意して下さい（例えば、完了したものや進行中のものなど）。」</t>
+    <t>これは活動の状態を複製してはいけないことに注意して下さい（例えば、完了したものや進行中のものなど）。</t>
   </si>
   <si>
     <t>活動の結果を特定します。</t>
@@ -1090,7 +1090,7 @@
     <t>活動状況/進捗についてのコメント (Katsudō jōkyō/Shinchoku ni tsuite no komento)</t>
   </si>
   <si>
-    <t>「活動の遵守状況や進捗についてのメモ」</t>
+    <t>活動の遵守状況や進捗についてのメモ</t>
   </si>
   <si>
     <t>この要素は、実行されるアクティビティを説明するために使用しないでください。アクティビティの詳細な参照先のリソース内で行われるか、アクティビティの詳細説明に記載されます。</t>
@@ -1112,10 +1112,10 @@
 </t>
   </si>
   <si>
-    <t>「特定のリソースで定義された活動の詳細」</t>
-  </si>
-  <si>
-    <t>「特定のリソースに表現された提案された活動の詳細。」</t>
+    <t>特定のリソースで定義された活動の詳細</t>
+  </si>
+  <si>
+    <t>特定のリソースに表現された提案された活動の詳細。</t>
   </si>
   <si>
     <t>標準拡張機能が存在します（[リソースが目標に関連する]（extension-resource-pertainstogoal.html）），これにより、CarePlan.activity.referenceのいずれかの参照リソースから目標を参照できます。 CarePlanから独立して表示される場合には、CarePlan.activity.referenceによって参照されたリソースが表示される場合に目標が表示される必要があります。 この要素を使用して指示されたCarePlanを指すリクエストは、「basedOn」要素を使用してこのCarePlanを指すべきではありません。つまり、CarePlanの一部である要求はCarePlanに基づいていません。</t>
@@ -1137,7 +1137,7 @@
     <t>"アクティビティのインライン定義" (Akutibiti no inrain teigi)</t>
   </si>
   <si>
-    <t>「プロシジャー（処置等）など具体的なリソースを持たない一般介護プランシステム（フォーム駆動型など）に適した計画された活動の簡単な概要」</t>
+    <t>プロシジャー（処置等）など具体的なリソースを持たない一般介護プランシステム（フォーム駆動型など）に適した計画された活動の簡単な概要</t>
   </si>
   <si>
     <t>Details in a simple form for generic care plan systems.</t>
@@ -1161,13 +1161,13 @@
     <t>"予約 | コミュニケーションリクエスト | デバイスリクエスト | 薬剤リクエスト | 栄養指示 | タスク | サービスリクエスト | 視力処方箋"</t>
   </si>
   <si>
-    <t>「ケアプラン活動のインライン定義が表すリソースの種類を説明します。 CarePlan.activity.referenceを使用してリソースを参照しない場合、CarePlan.activity.detailはインライン定義です。例えば、MedicationRequest、ServiceRequest、またはCommunicationRequestです。」</t>
+    <t>ケアプラン活動のインライン定義が表すリソースの種類を説明します。 CarePlan.activity.referenceを使用してリソースを参照しない場合、CarePlan.activity.detailはインライン定義です。例えば、MedicationRequest、ServiceRequest、またはCommunicationRequestです。</t>
   </si>
   <si>
     <t>May determine what types of extensions are permitted.</t>
   </si>
   <si>
-    <t>「FHIRの一部として定義されたリソースタイプは、介護計画活動のインライン定義として表現できます。」</t>
+    <t>FHIRの一部として定義されたリソースタイプは、介護計画活動のインライン定義として表現できます。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/care-plan-activity-kind|4.0.1</t>
@@ -1183,7 +1183,7 @@
 </t>
   </si>
   <si>
-    <t>「このCarePlan活動に完全または部分的に従われるFHIR定義プロトコル、ガイドライン、アンケート、またはその他の定義へのURL」</t>
+    <t>このCarePlan活動に完全または部分的に従われるFHIR定義プロトコル、ガイドライン、アンケート、またはその他の定義へのURL</t>
   </si>
   <si>
     <t>Allows Questionnaires that the patient (or practitioner) should fill in to fulfill the care plan activity.</t>
@@ -1231,13 +1231,13 @@
     <t>なぜその活動を行うべきか、またはなぜその活動が禁止されたのか。 (Naze sono katsudou wo okonau beki ka, matawa naze sono katsudou ga kinshi sareta no ka?)</t>
   </si>
   <si>
-    <t>「この特定の活動を計画の一部として含めることを推進した理論、または活動が禁止された理由を提供します。」</t>
+    <t>この特定の活動を計画の一部として含めることを推進した理論、または活動が禁止された理由を提供します。</t>
   </si>
   <si>
     <t>これは診断コードになる可能性があります。完全な状態記録が存在する場合や、追加の詳細が必要な場合は、reasonConditionを使用してください。</t>
   </si>
   <si>
-    <t>「看護計画のアクティビティが必要な理由を特定する。一般的な健康状態コード、予防、手術の準備などの概念を含めることができる。」</t>
+    <t>看護計画のアクティビティが必要な理由を特定する。一般的な健康状態コード、予防、手術の準備などの概念を含めることができる。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
@@ -1256,7 +1256,7 @@
     <t>なぜ活動が必要なのか？ (Naze katsudou ga hitsuyou na no ka?)</t>
   </si>
   <si>
-    <t>「健康状態など、このリクエストを正当化し、この特定のアクティビティを計画の一部として含める原動力となった他のリソースを示します。」</t>
+    <t>健康状態など、このリクエストを正当化し、この特定のアクティビティを計画の一部として含める原動力となった他のリソースを示します。</t>
   </si>
   <si>
     <t>活動レベルで特定できる条件は、全体計画の理由として特定されないことがあります。</t>
@@ -1268,7 +1268,7 @@
     <t>このアクティビティに関連する目標</t>
   </si>
   <si>
-    <t>「この活動に貢献することを目的とした目標を特定する内部参照。」</t>
+    <t>この活動に貢献することを目的とした目標を特定する内部参照。</t>
   </si>
   <si>
     <t>So that participants know the link explicitly.</t>
@@ -1280,7 +1280,7 @@
     <t>未開始 | 予定済み | 進行中 | 保留中 | 完了 | 取り消し | 停止 | 不明 | エラーで入力済み</t>
   </si>
   <si>
-    <t>「特定の活動に対して進捗状況を特定します。」</t>
+    <t>特定の活動に対して進捗状況を特定します。</t>
   </si>
   <si>
     <t>アクションを起こすためにリンクされているリソースに基づいて、ステータスの一部は推測できます。 "ステータス"は、計画が最後に更新された時点と同じくらい最新であることに注意してください。
@@ -1311,10 +1311,10 @@
     <t>現在の状況の理由 (Genzai no jōkyō no riyū)</t>
   </si>
   <si>
-    <t>「活動がまだ開始されていない、保留中である、キャンセルされた理由を説明します。」</t>
-  </si>
-  <si>
-    <t>「完了」という状態の場合は一般に存在しないでしょう。状態が変更された場合に更新するように促すか、少なくとも既存の値を削除するようにしてください。」</t>
+    <t>活動がまだ開始されていない、保留中である、キャンセルされた理由を説明します。</t>
+  </si>
+  <si>
+    <t>完了」という状態の場合は一般に存在しないでしょう。状態が変更された場合に更新するように促すか、少なくとも既存の値を削除するようにしてください。</t>
   </si>
   <si>
     <t>Request.statusReason</t>
@@ -1358,7 +1358,7 @@
     <t>活動が発生するとき</t>
   </si>
   <si>
-    <t>「記述されたアクティビティが発生する期間、タイミング、または頻度。」</t>
+    <t>記述されたアクティビティが発生する期間、タイミング、または頻度。</t>
   </si>
   <si>
     <t>Allows prompting for activities and detection of missed planned activities.</t>
@@ -1380,7 +1380,7 @@
     <t>活動が行われる施設を特定します。例えば、自宅、病院、特定のクリニックなどです。</t>
   </si>
   <si>
-    <t>「特定の臨床ロケーションを参照する場合もあれば、ロケーションのタイプを識別することもあります。」</t>
+    <t>特定の臨床ロケーションを参照する場合もあれば、ロケーションのタイプを識別することもあります。</t>
   </si>
   <si>
     <t>Helps in planning of activity.</t>
@@ -1402,10 +1402,10 @@
     <t>誰が責任を負うのですか？ (Dare ga sekinin o ou no desu ka?)</t>
   </si>
   <si>
-    <t>「誰がその活動に関与する必要があるかを特定します。」</t>
-  </si>
-  <si>
-    <t>「演者は介護プランの参加者である可能性もあります。」</t>
+    <t>誰がその活動に関与する必要があるかを特定します。</t>
+  </si>
+  <si>
+    <t>演者は介護プランの参加者である可能性もあります。</t>
   </si>
   <si>
     <t>Request.performer</t>
@@ -1427,10 +1427,10 @@
     <t>「何を管理/供給するのですか？」(Nani wo kanri/kyoukyuu suru no desu ka?)</t>
   </si>
   <si>
-    <t>「活動で消費または提供される食料品、薬品、またはその他の製品を識別します。」</t>
-  </si>
-  <si>
-    <t>「ケア・プランのアクティビティーの一環として提供される製品またはアレンジメント」</t>
+    <t>活動で消費または提供される食料品、薬品、またはその他の製品を識別します。</t>
+  </si>
+  <si>
+    <t>ケア・プランのアクティビティーの一環として提供される製品またはアレンジメント</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
@@ -1456,7 +1456,7 @@
     <t>「1日に何回飲むべきですか？」(Ichi-nichi ni nan-kai nomu beki desu ka?)"</t>
   </si>
   <si>
-    <t>「特定日に消費される予想数量を特定する。」</t>
+    <t>特定日に消費される予想数量を特定する。</t>
   </si>
   <si>
     <t>Allows rough dose checking.</t>
@@ -1471,10 +1471,10 @@
     <t>CarePlan.activity.detail.quantity</t>
   </si>
   <si>
-    <t>「どのくらいの量を与える／支給する／消費するのですか？」</t>
-  </si>
-  <si>
-    <t>「被験者によって供給、投与、消費される予定の数量を特定する。」</t>
+    <t>どのくらいの量を与える／支給する／消費するのですか？</t>
+  </si>
+  <si>
+    <t>被験者によって供給、投与、消費される予定の数量を特定する。</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP][classCode=SPLY].quantity</t>
@@ -1486,10 +1486,10 @@
     <t>CarePlan.activity.detail.description</t>
   </si>
   <si>
-    <t>「実施するアクティビティを説明する追加情報」</t>
-  </si>
-  <si>
-    <t>「これは意図された活動の発生に関する制約のテキスト上の説明を提供し、他の活動との関係を含むことがあります。また、目的、前提条件、終了条件も含まれる場合があります。最後に、場所、方法、経路などの活動に関する詳細を伝えることもできます。」</t>
+    <t>実施するアクティビティを説明する追加情報</t>
+  </si>
+  <si>
+    <t>これは意図された活動の発生に関する制約のテキスト上の説明を提供し、他の活動との関係を含むことがあります。また、目的、前提条件、終了条件も含まれる場合があります。最後に、場所、方法、経路などの活動に関する詳細を伝えることもできます。</t>
   </si>
   <si>
     <t>.text</t>
@@ -1498,10 +1498,10 @@
     <t>CarePlan.note</t>
   </si>
   <si>
-    <t>「この計画に対するコメント」</t>
-  </si>
-  <si>
-    <t>「介護計画についてのその他の項目には含まれていない一般的な注意事項」</t>
+    <t>この計画に対するコメント</t>
+  </si>
+  <si>
+    <t>介護計画についてのその他の項目には含まれていない一般的な注意事項</t>
   </si>
   <si>
     <t>Used to capture information that applies to the plan as a whole that doesn't fit into discrete elements.</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-CarePlan.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-CarePlan.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-CarePlan.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-CarePlan.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-CarePlan.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-CarePlan.xlsx
@@ -304,7 +304,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
+    <t>「リソースがどこから来たかを特定する」</t>
   </si>
   <si>
     <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
@@ -410,7 +410,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+    <t>「リソースコンテンツの言語」</t>
   </si>
   <si>
     <t>リソースが書かれている基本言語。</t>
@@ -422,7 +422,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」(Ningen no gengo.)</t>
+    <t>「人間の言語。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -468,7 +468,7 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+    <t>「含まれている、インラインのリソース」</t>
   </si>
   <si>
     <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
@@ -845,7 +845,7 @@
     <t>日付記録が最初に記録された。</t>
   </si>
   <si>
-    <t>「これは特定のCarePlanレコードがシステム内で作成された日を表します。これはしばしばシステムが生成した日付です。」(Kore wa tokutei no CarePlan rekōdo ga shisutemu nai de sakusei sareda hi o hyō shimasu. Kore wa shibashiba shisutemu ga seisei shita hidzuke desu.)</t>
+    <t>「これは特定のCarePlanレコードがシステム内で作成された日を表します。これはしばしばシステムが生成した日付です。」</t>
   </si>
   <si>
     <t>Request.authoredOn</t>
@@ -864,7 +864,7 @@
 </t>
   </si>
   <si>
-    <t>「指名された責任者は誰ですか？」(Shimei sareta sekinin-sha wa dare desu ka?)</t>
+    <t>「指名された責任者は誰ですか？」</t>
   </si>
   <si>
     <t>人口密集地において、著者はケアプランに責任を持っています。ケアプランは著者に帰属されます。</t>
@@ -882,7 +882,7 @@
     <t>CarePlan.contributor</t>
   </si>
   <si>
-    <t>「誰がケアプランの内容を提供しましたか？」(Dare ga kea puran no naiyou wo teikyou shimashita ka?)</t>
+    <t>「誰がケアプランの内容を提供しましたか？」</t>
   </si>
   <si>
     <t>介護プランの内容を提供した個人または組織を特定する。</t>
@@ -1374,7 +1374,7 @@
 </t>
   </si>
   <si>
-    <t>「起こるべき場所はどこですか？」(Okoru beki basho wa doko desu ka?)</t>
+    <t>「起こるべき場所はどこですか？」</t>
   </si>
   <si>
     <t>活動が行われる施設を特定します。例えば、自宅、病院、特定のクリニックなどです。</t>
@@ -1424,7 +1424,7 @@
 Reference(Medication|Substance)</t>
   </si>
   <si>
-    <t>「何を管理/供給するのですか？」(Nani wo kanri/kyoukyuu suru no desu ka?)</t>
+    <t>「何を管理/供給するのですか？」</t>
   </si>
   <si>
     <t>活動で消費または提供される食料品、薬品、またはその他の製品を識別します。</t>
@@ -1453,7 +1453,7 @@
 </t>
   </si>
   <si>
-    <t>「1日に何回飲むべきですか？」(Ichi-nichi ni nan-kai nomu beki desu ka?)"</t>
+    <t>「1日に何回飲むべきですか？」"</t>
   </si>
   <si>
     <t>特定日に消費される予想数量を特定する。</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-CarePlan.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-CarePlan.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-CarePlan.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-CarePlan.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-CarePlan.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-CarePlan.xlsx
@@ -273,7 +273,7 @@
   </si>
   <si>
     <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
+dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -298,10 +298,10 @@
     <t>このアーティファクトの論理ID</t>
   </si>
   <si>
-    <t>リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。</t>
-  </si>
-  <si>
-    <t>リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。</t>
+    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
+  </si>
+  <si>
+    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -314,7 +314,7 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ</t>
+    <t>「リソースに関するメタデータ」</t>
   </si>
   <si>
     <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
@@ -360,7 +360,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -380,7 +380,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
+ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>CarePlan.meta.versionId</t>
@@ -405,7 +405,7 @@
 </t>
   </si>
   <si>
-    <t>リソースのバージョンが最後に変更されたとき</t>
+    <t>「リソースのバージョンが最後に変更されたとき」</t>
   </si>
   <si>
     <t>リソースが最後に変更されたとき - 例えば、バージョンが変更されたとき。</t>
@@ -424,14 +424,14 @@
 </t>
   </si>
   <si>
-    <t>「リソースがどこから来たかを特定する」</t>
+    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
   </si>
   <si>
     <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
   </si>
   <si>
-    <t>プロバナンスのリソースにおいて、これはProvenance.entity.what[x]に対応します。ソースの正確な使用方法（および含意されるProvenance.entity.role）は実装者の判断に委ねられます。指定されたソースは1つだけです。追加のプロバナンスの詳細が必要な場合は、完全なプロバナンスリソースを使用するべきです。
-この要素は、正規のURLでホストされていないリソースの現在のマスターソースがどこにあるかを示すために使用できます。</t>
+    <t>「プロバナンスのリソースにおいて、これはProvenance.entity.what[x]に対応します。ソースの正確な使用方法（および含意されるProvenance.entity.role）は実装者の判断に委ねられます。指定されたソースは1つだけです。追加のプロバナンスの詳細が必要な場合は、完全なプロバナンスリソースを使用するべきです。
+この要素は、正規のURLでホストされていないリソースの現在のマスターソースがどこにあるかを示すために使用できます。」</t>
   </si>
   <si>
     <t>Meta.source</t>
@@ -499,7 +499,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>様々なタグを表すコードで、一般的にはワークフローに関連しています。例：「ジョーンズ博士によるレビューが必要です」。</t>
+    <t>「様々なタグを表すコードで、一般的にはワークフローに関連しています。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/common-tags</t>
@@ -514,7 +514,7 @@
     <t>このコンテンツが作成されたルールセット</t>
   </si>
   <si>
-    <t>リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。</t>
+    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
   </si>
   <si>
     <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
@@ -530,10 +530,10 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。</t>
+    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+  </si>
+  <si>
+    <t>「リソースが書かれている基本言語。」</t>
   </si>
   <si>
     <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
@@ -542,7 +542,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」</t>
+    <t>「人間の言語。」(Ningen no gengo.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -562,10 +562,10 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト要約</t>
-  </si>
-  <si>
-    <t>リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。</t>
+    <t>「人間の解釈のためのリソースのテキスト要約」</t>
+  </si>
+  <si>
+    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
   </si>
   <si>
     <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
@@ -588,13 +588,13 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」</t>
-  </si>
-  <si>
-    <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
-  </si>
-  <si>
-    <t>コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。</t>
+    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+  </si>
+  <si>
+    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
+  </si>
+  <si>
+    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -606,7 +606,7 @@
     <t>CarePlan.extension</t>
   </si>
   <si>
-    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用することができます。拡張機能の使用を安全かつ管理可能にするために、定義と使用の一定のガバナンスが適用されます。実装者はどんな拡張機能でも定義できますが、拡張機能の定義の一部として満たす必要がある要件があります</t>
+    <t>「リソースの基本的な定義の一部ではない追加情報を表すために使用することができます。拡張機能の使用を安全かつ管理可能にするために、定義と使用の一定のガバナンスが適用されます。実装者はどんな拡張機能でも定義できますが、拡張機能の定義の一部として満たす必要がある要件があります」</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -618,7 +618,7 @@
     <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
   </si>
   <si>
-    <t>リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。</t>
+    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -634,10 +634,10 @@
 </t>
   </si>
   <si>
-    <t>このプランの外部ID</t>
-  </si>
-  <si>
-    <t>パフォーマーまたはその他のシステムによって割り当てられたこのケアプランのビジネス識別子は、リソースが更新され、サーバからサーバへ伝播する際に一定のままであります。</t>
+    <t>「このプランの外部ID」</t>
+  </si>
+  <si>
+    <t>「パフォーマーまたはその他のシステムによって割り当てられたこのケアプランのビジネス識別子は、リソースが更新され、サーバからサーバへ伝播する際に一定のままであります。」</t>
   </si>
   <si>
     <t>これはビジネス識別子であり、リソース識別子ではありません（[discussion]（resource.html＃identifiers）を参照）。 識別子が単一のリソースインスタンスにのみ表示されることが最善の方法ですが、ビジネス上の実践によっては、同じ識別子を持つ複数のリソースインスタンスが存在する場合があります。 たとえば、複数の患者と個人リソースインスタンスが同じ社会保険番号を共有する場合があります。</t>
@@ -703,7 +703,7 @@
 </t>
   </si>
   <si>
-    <t>ケアプランを実行する</t>
+    <t>「ケアプランを実行する」(Kea puran wo jikkou suru)</t>
   </si>
   <si>
     <t>このケアプランによって全体または一部が満たされるケアプラン。 (Kono keapuran ni yotte zentai matawa ichibu ga mitasareru keapuran.)</t>
@@ -728,7 +728,7 @@
     <t>この新しい介護計画によって機能が引き継がれた完了または終了した介護計画。</t>
   </si>
   <si>
-    <t>置き換えは、最初の介護計画が即座に拒否されたためか（何か問題があったため）前の介護計画が完了したが、介護計画で説明されたアクションのニーズが継続しているためかもしれません。</t>
+    <t>「置き換えは、最初の介護計画が即座に拒否されたためか（何か問題があったため）前の介護計画が完了したが、介護計画で説明されたアクションのニーズが継続しているためかもしれません。」</t>
   </si>
   <si>
     <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple care plans.</t>
@@ -743,7 +743,7 @@
     <t>参照されたCarePlanの一部</t>
   </si>
   <si>
-    <t>この特定の介護計画が構成要素またはステップである、より大規模な介護計画</t>
+    <t>「この特定の介護計画が構成要素またはステップである、より大規模な介護計画」</t>
   </si>
   <si>
     <t>それぞれのケアプランは独立したリクエストであり、他のケアプランの一部になることが問題を引き起こすことがあるため、この要素についてはまだ議論中です。</t>
@@ -755,7 +755,7 @@
     <t>下書き| アクティブ| 保留中| 取り消された| 完了| エラーで入力| 不明</t>
   </si>
   <si>
-    <t>計画が実行中か、将来の意図を表しているか、現在歴史的記録であるかを示します。</t>
+    <t>「計画が実行中か、将来の意図を表しているか、現在歴史的記録であるかを示します。」</t>
   </si>
   <si>
     <t>未知のコードは、他のステータスを伝えるために使用されるべきではありません。未知のコードは、ステータスの1つが適用されるときに使用されるべきですが、作成システムがケアプランの現在の状態を知らない場合にも使用されます。
@@ -789,7 +789,7 @@
     <t>提案 | 計画 | 注文 | オプション</t>
   </si>
   <si>
-    <t>ケアプランに関連する権限/意図のレベルを示し、ケアプランがワークフローチェーンにどのようにフィットするかを示します。</t>
+    <t>「ケアプランに関連する権限/意図のレベルを示し、ケアプランがワークフローチェーンにどのようにフィットするかを示します。」</t>
   </si>
   <si>
     <t>この要素は修飾子としてラベル付けされています。なぜなら、意図が変わり、リソースが実際に適用可能な場合と方法が変わるからです。</t>
@@ -798,7 +798,7 @@
     <t>Proposals/recommendations, plans and orders all use the same structure and can exist in the same fulfillment chain.</t>
   </si>
   <si>
-    <t>看護計画に関連する権限/意図の程度を示すコード</t>
+    <t>「看護計画に関連する権限/意図の程度を示すコード」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/care-plan-intent|4.0.1</t>
@@ -895,10 +895,10 @@
 </t>
   </si>
   <si>
-    <t>一部として作成されたEncounter（診察、受診、入退院など）</t>
-  </si>
-  <si>
-    <t>このCarePlanが作成されたEncounter（診察、受診、入退院など）、またはこの記録の作成に密接に関係するEncounter（診察、受診、入退院など）。</t>
+    <t>「一部として作成された出会い」</t>
+  </si>
+  <si>
+    <t>このCarePlanが作成された出会い、またはこの記録の作成に密接に関係する出会い。</t>
   </si>
   <si>
     <t>これは通常、イベントが発生したエンカウンター内で行われますが、公式的なエンカウンターの完了前または後でも、エンカウンターの文脈に関連するアクティビティが開始される場合があります。 ケアプランに従って実施されるケアプランアクティビティは、他のエンカウンターの一部として行われる可能性があります。</t>
@@ -927,13 +927,13 @@
 </t>
   </si>
   <si>
-    <t>時間期間プランがカバーされています</t>
+    <t>「時間期間プランがカバーされています」</t>
   </si>
   <si>
     <t>計画が（実行される予定である）開始時期と終了時期を示します。</t>
   </si>
   <si>
-    <t>計画の一部として予定された任意のアクティビティは、単一のエンカウンタ/エピソード内で計画されたものであるか、複数のエンカウンタ/エピソードにわたって計画されたものであるかに関係なく、指定された期間内に制約される必要があります（例えば、慢性疾患の長期管理）。</t>
+    <t>「計画の一部として予定された任意のアクティビティは、単一のエンカウンタ/エピソード内で計画されたものであるか、複数のエンカウンタ/エピソードにわたって計画されたものであるかに関係なく、指定された期間内に制約される必要があります（例えば、慢性疾患の長期管理）。」</t>
   </si>
   <si>
     <t>Allows tracking what plan(s) are in effect at a particular time.</t>
@@ -962,10 +962,10 @@
 </t>
   </si>
   <si>
-    <t>日付記録が最初に記録された。</t>
-  </si>
-  <si>
-    <t>「これは特定のCarePlanレコードがシステム内で作成された日を表します。これはしばしばシステムが生成した日付です。」</t>
+    <t>「日付記録が最初に記録された。」</t>
+  </si>
+  <si>
+    <t>「これは特定のCarePlanレコードがシステム内で作成された日を表します。これはしばしばシステムが生成した日付です。」(Kore wa tokutei no CarePlan rekōdo ga shisutemu nai de sakusei sareda hi o hyō shimasu. Kore wa shibashiba shisutemu ga seisei shita hidzuke desu.)</t>
   </si>
   <si>
     <t>Request.authoredOn</t>
@@ -984,7 +984,7 @@
 </t>
   </si>
   <si>
-    <t>「指名された責任者は誰ですか？」</t>
+    <t>「指名された責任者は誰ですか？」(Shimei sareta sekinin-sha wa dare desu ka?)</t>
   </si>
   <si>
     <t>人口密集地において、著者はケアプランに責任を持っています。ケアプランは著者に帰属されます。</t>
@@ -1002,10 +1002,10 @@
     <t>CarePlan.contributor</t>
   </si>
   <si>
-    <t>「誰がケアプランの内容を提供しましたか？」</t>
-  </si>
-  <si>
-    <t>介護プランの内容を提供した個人または組織を特定する。</t>
+    <t>「誰がケアプランの内容を提供しましたか？」(Dare ga kea puran no naiyou wo teikyou shimashita ka?)</t>
+  </si>
+  <si>
+    <t>「介護プランの内容を提供した個人または組織を特定する。」</t>
   </si>
   <si>
     <t>共同ケアプランには複数の貢献者がいる場合があります。</t>
@@ -1018,10 +1018,10 @@
 </t>
   </si>
   <si>
-    <t>この計画に誰が関わっているのですか？</t>
-  </si>
-  <si>
-    <t>この計画によって想定されるケアに関与するすべての人々や組織を特定する。</t>
+    <t>「この計画に誰が関わっているのですか？」</t>
+  </si>
+  <si>
+    <t>「この計画によって想定されるケアに関与するすべての人々や組織を特定する。」</t>
   </si>
   <si>
     <t>Allows representation of care teams, helps scope care plan.  In some cases may be a determiner of access permissions.</t>
@@ -1040,7 +1040,7 @@
 </t>
   </si>
   <si>
-    <t>この計画が対処する健康上の問題</t>
+    <t>「この計画が対処する健康上の問題」</t>
   </si>
   <si>
     <t>この計画で管理および軽減の対象となる状況、問題、懸念、診断等を特定する。</t>
@@ -1074,10 +1074,10 @@
     <t>"計画の一部として考慮される情報" (Keikaku no ichibu toshite kouryo sareru joho)</t>
   </si>
   <si>
-    <t>計画の形成に特定に影響を与えた患者の記録の部分を特定します。これらには、共存疾患、最近の手術、制限、最近の評価などが含まれます。</t>
-  </si>
-  <si>
-    <t>ケアプランで取り扱われる特定の状態を識別するために"concern"を使用してください。</t>
+    <t>「計画の形成に特定に影響を与えた患者の記録の部分を特定します。これらには、共存疾患、最近の手術、制限、最近の評価などが含まれます。」</t>
+  </si>
+  <si>
+    <t>「ケアプランで取り扱われる特定の状態を識別するために"concern"を使用してください。」</t>
   </si>
   <si>
     <t>Identifies barriers and other considerations associated with the care plan.</t>
@@ -1096,7 +1096,7 @@
     <t>計画の望まれる結果 (Keikaku no nozomareru kekka)</t>
   </si>
   <si>
-    <t>介護計画を実行することで意図される目標を説明する。</t>
+    <t>「介護計画を実行することで意図される目標を説明する。」</t>
   </si>
   <si>
     <t>目標は特定の変化を達成することであったり、現状を維持することであったり、衰退を遅らせることであることもある。</t>
@@ -1127,7 +1127,7 @@
     <t>Allows systems to prompt for performance of planned activities, and validate plans against best practice.</t>
   </si>
   <si>
-    <t>cpl-3:参照文献または詳細を提供してください。両方は不要です。 {detail.empty() or reference.empty()}
+    <t>cpl-3:「参照文献または詳細を提供してください。両方は不要です。」 {detail.empty() or reference.empty()}
 ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
@@ -1151,11 +1151,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されなくても無視できない拡張機能</t>
-  </si>
-  <si>
-    <t>基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
-修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。</t>
+    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1170,7 +1170,7 @@
     <t>活動の状況が評価された時点での結果を特定します。例えば、教育活動の結果は患者が理解したかどうかです。</t>
   </si>
   <si>
-    <t>これは活動の状態を複製してはいけないことに注意して下さい（例えば、完了したものや進行中のものなど）。</t>
+    <t>「これは活動の状態を複製してはいけないことに注意して下さい（例えば、完了したものや進行中のものなど）。」</t>
   </si>
   <si>
     <t>活動の結果を特定します。</t>
@@ -1182,10 +1182,10 @@
     <t>CarePlan.activity.outcomeReference</t>
   </si>
   <si>
-    <t>予約、Encounter（診察、受診、入退院など）、手続きなど。 (Yoyaku, deai, tetsuzuki nado.)</t>
-  </si>
-  <si>
-    <t>アクティビティによって生じる結果や行動の詳細。プロシジャー（処置等）、エンカウンター、観察などの「イベント」リソースに参照していることは、アクティビティそのものの結果/成果です。CarePlan.activity.detailを使用するか、CarePlan.activity.reference（「リクエスト」リソースへの参照）を使用してアクティビティを伝えることができます。</t>
+    <t>予約、出会い、手続きなど。 (Yoyaku, deai, tetsuzuki nado.)</t>
+  </si>
+  <si>
+    <t>アクティビティによって生じる結果や行動の詳細。手順、エンカウンター、観察などの「イベント」リソースに参照していることは、アクティビティそのものの結果/成果です。CarePlan.activity.detailを使用するか、CarePlan.activity.reference（「リクエスト」リソースへの参照）を使用してアクティビティを伝えることができます。</t>
   </si>
   <si>
     <t>活動の結果は、関連する目標の結果に独立しています。例えば、目標が体重150ポンドの達成であり、活動がダイエットと定義されている場合、活動の結果は消費カロリーであり、目標の結果は実際の体重の観察です。</t>
@@ -1210,7 +1210,7 @@
     <t>活動状況/進捗についてのコメント (Katsudō jōkyō/Shinchoku ni tsuite no komento)</t>
   </si>
   <si>
-    <t>活動の遵守状況や進捗についてのメモ</t>
+    <t>「活動の遵守状況や進捗についてのメモ」</t>
   </si>
   <si>
     <t>この要素は、実行されるアクティビティを説明するために使用しないでください。アクティビティの詳細な参照先のリソース内で行われるか、アクティビティの詳細説明に記載されます。</t>
@@ -1232,10 +1232,10 @@
 </t>
   </si>
   <si>
-    <t>特定のリソースで定義された活動の詳細</t>
-  </si>
-  <si>
-    <t>特定のリソースに表現された提案された活動の詳細。</t>
+    <t>「特定のリソースで定義された活動の詳細」</t>
+  </si>
+  <si>
+    <t>「特定のリソースに表現された提案された活動の詳細。」</t>
   </si>
   <si>
     <t>標準拡張機能が存在します（[リソースが目標に関連する]（extension-resource-pertainstogoal.html）），これにより、CarePlan.activity.referenceのいずれかの参照リソースから目標を参照できます。 CarePlanから独立して表示される場合には、CarePlan.activity.referenceによって参照されたリソースが表示される場合に目標が表示される必要があります。 この要素を使用して指示されたCarePlanを指すリクエストは、「basedOn」要素を使用してこのCarePlanを指すべきではありません。つまり、CarePlanの一部である要求はCarePlanに基づいていません。</t>
@@ -1257,7 +1257,7 @@
     <t>"アクティビティのインライン定義" (Akutibiti no inrain teigi)</t>
   </si>
   <si>
-    <t>プロシジャー（処置等）など具体的なリソースを持たない一般介護プランシステム（フォーム駆動型など）に適した計画された活動の簡単な概要</t>
+    <t>「手順など具体的なリソースを持たない一般介護プランシステム（フォーム駆動型など）に適した計画された活動の簡単な概要」</t>
   </si>
   <si>
     <t>Details in a simple form for generic care plan systems.</t>
@@ -1281,13 +1281,13 @@
     <t>"予約 | コミュニケーションリクエスト | デバイスリクエスト | 薬剤リクエスト | 栄養指示 | タスク | サービスリクエスト | 視力処方箋"</t>
   </si>
   <si>
-    <t>ケアプラン活動のインライン定義が表すリソースの種類を説明します。 CarePlan.activity.referenceを使用してリソースを参照しない場合、CarePlan.activity.detailはインライン定義です。例えば、MedicationRequest、ServiceRequest、またはCommunicationRequestです。</t>
+    <t>「ケアプラン活動のインライン定義が表すリソースの種類を説明します。 CarePlan.activity.referenceを使用してリソースを参照しない場合、CarePlan.activity.detailはインライン定義です。例えば、MedicationRequest、ServiceRequest、またはCommunicationRequestです。」</t>
   </si>
   <si>
     <t>May determine what types of extensions are permitted.</t>
   </si>
   <si>
-    <t>FHIRの一部として定義されたリソースタイプは、介護計画活動のインライン定義として表現できます。</t>
+    <t>「FHIRの一部として定義されたリソースタイプは、介護計画活動のインライン定義として表現できます。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/care-plan-activity-kind|4.0.1</t>
@@ -1303,7 +1303,7 @@
 </t>
   </si>
   <si>
-    <t>このCarePlan活動に完全または部分的に従われるFHIR定義プロトコル、ガイドライン、アンケート、またはその他の定義へのURL</t>
+    <t>「このCarePlan活動に完全または部分的に従われるFHIR定義プロトコル、ガイドライン、アンケート、またはその他の定義へのURL」</t>
   </si>
   <si>
     <t>Allows Questionnaires that the patient (or practitioner) should fill in to fulfill the care plan activity.</t>
@@ -1321,7 +1321,7 @@
     <t>活動の詳細タイプ (Katsudou no shousai taipu)</t>
   </si>
   <si>
-    <t>計画された活動の詳細な説明；例えば、どのようなラボテスト、どのようなプロシジャー（処置等）、どのようなEncounter（診察、受診、入退院など）か。</t>
+    <t>計画された活動の詳細な説明；例えば、どのようなラボテスト、どのような手順、どのような出会いか。</t>
   </si>
   <si>
     <t>特定の製品に関する活動においては、あまり関係がない傾向があります。コードに否定を示すことは避け、代わりに「禁止」としてください。</t>
@@ -1330,7 +1330,7 @@
     <t>Allows matching performed to planned as well as validation against protocols.</t>
   </si>
   <si>
-    <t>活動の種類に関する詳細な説明例：どのような実験、どのプロシジャー（処置等）、どのようなEncounter（診察、受診、入退院など）ですか。</t>
+    <t>活動の種類に関する詳細な説明例：どのような実験、どの手順、どのような出会いですか。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
@@ -1351,13 +1351,13 @@
     <t>なぜその活動を行うべきか、またはなぜその活動が禁止されたのか。 (Naze sono katsudou wo okonau beki ka, matawa naze sono katsudou ga kinshi sareta no ka?)</t>
   </si>
   <si>
-    <t>この特定の活動を計画の一部として含めることを推進した理論、または活動が禁止された理由を提供します。</t>
+    <t>「この特定の活動を計画の一部として含めることを推進した理論、または活動が禁止された理由を提供します。」</t>
   </si>
   <si>
     <t>これは診断コードになる可能性があります。完全な状態記録が存在する場合や、追加の詳細が必要な場合は、reasonConditionを使用してください。</t>
   </si>
   <si>
-    <t>看護計画のアクティビティが必要な理由を特定する。一般的な健康状態コード、予防、手術の準備などの概念を含めることができる。</t>
+    <t>「看護計画のアクティビティが必要な理由を特定する。一般的な健康状態コード、予防、手術の準備などの概念を含めることができる。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
@@ -1376,7 +1376,7 @@
     <t>なぜ活動が必要なのか？ (Naze katsudou ga hitsuyou na no ka?)</t>
   </si>
   <si>
-    <t>健康状態など、このリクエストを正当化し、この特定のアクティビティを計画の一部として含める原動力となった他のリソースを示します。</t>
+    <t>「健康状態など、このリクエストを正当化し、この特定のアクティビティを計画の一部として含める原動力となった他のリソースを示します。」</t>
   </si>
   <si>
     <t>活動レベルで特定できる条件は、全体計画の理由として特定されないことがあります。</t>
@@ -1388,7 +1388,7 @@
     <t>このアクティビティに関連する目標</t>
   </si>
   <si>
-    <t>この活動に貢献することを目的とした目標を特定する内部参照。</t>
+    <t>「この活動に貢献することを目的とした目標を特定する内部参照。」</t>
   </si>
   <si>
     <t>So that participants know the link explicitly.</t>
@@ -1400,7 +1400,7 @@
     <t>未開始 | 予定済み | 進行中 | 保留中 | 完了 | 取り消し | 停止 | 不明 | エラーで入力済み</t>
   </si>
   <si>
-    <t>特定の活動に対して進捗状況を特定します。</t>
+    <t>「特定の活動に対して進捗状況を特定します。」</t>
   </si>
   <si>
     <t>アクションを起こすためにリンクされているリソースに基づいて、ステータスの一部は推測できます。 "ステータス"は、計画が最後に更新された時点と同じくらい最新であることに注意してください。
@@ -1431,10 +1431,10 @@
     <t>現在の状況の理由 (Genzai no jōkyō no riyū)</t>
   </si>
   <si>
-    <t>活動がまだ開始されていない、保留中である、キャンセルされた理由を説明します。</t>
-  </si>
-  <si>
-    <t>完了」という状態の場合は一般に存在しないでしょう。状態が変更された場合に更新するように促すか、少なくとも既存の値を削除するようにしてください。</t>
+    <t>「活動がまだ開始されていない、保留中である、キャンセルされた理由を説明します。」</t>
+  </si>
+  <si>
+    <t>「完了」という状態の場合は一般に存在しないでしょう。状態が変更された場合に更新するように促すか、少なくとも既存の値を削除するようにしてください。」</t>
   </si>
   <si>
     <t>Request.statusReason</t>
@@ -1478,7 +1478,7 @@
     <t>活動が発生するとき</t>
   </si>
   <si>
-    <t>記述されたアクティビティが発生する期間、タイミング、または頻度。</t>
+    <t>「記述されたアクティビティが発生する期間、タイミング、または頻度。」</t>
   </si>
   <si>
     <t>Allows prompting for activities and detection of missed planned activities.</t>
@@ -1494,13 +1494,13 @@
 </t>
   </si>
   <si>
-    <t>「起こるべき場所はどこですか？」</t>
+    <t>「起こるべき場所はどこですか？」(Okoru beki basho wa doko desu ka?)</t>
   </si>
   <si>
     <t>活動が行われる施設を特定します。例えば、自宅、病院、特定のクリニックなどです。</t>
   </si>
   <si>
-    <t>特定の臨床ロケーションを参照する場合もあれば、ロケーションのタイプを識別することもあります。</t>
+    <t>「特定の臨床ロケーションを参照する場合もあれば、ロケーションのタイプを識別することもあります。」</t>
   </si>
   <si>
     <t>Helps in planning of activity.</t>
@@ -1522,10 +1522,10 @@
     <t>誰が責任を負うのですか？ (Dare ga sekinin o ou no desu ka?)</t>
   </si>
   <si>
-    <t>誰がその活動に関与する必要があるかを特定します。</t>
-  </si>
-  <si>
-    <t>演者は介護プランの参加者である可能性もあります。</t>
+    <t>「誰がその活動に関与する必要があるかを特定します。」</t>
+  </si>
+  <si>
+    <t>「演者は介護プランの参加者である可能性もあります。」</t>
   </si>
   <si>
     <t>Request.performer</t>
@@ -1544,13 +1544,13 @@
 Reference(Medication|Substance)</t>
   </si>
   <si>
-    <t>「何を管理/供給するのですか？」</t>
-  </si>
-  <si>
-    <t>活動で消費または提供される食料品、薬品、またはその他の製品を識別します。</t>
-  </si>
-  <si>
-    <t>ケア・プランのアクティビティーの一環として提供される製品またはアレンジメント</t>
+    <t>「何を管理/供給するのですか？」(Nani wo kanri/kyoukyuu suru no desu ka?)</t>
+  </si>
+  <si>
+    <t>「活動で消費または提供される食料品、薬品、またはその他の製品を識別します。」</t>
+  </si>
+  <si>
+    <t>「ケア・プランのアクティビティーの一環として提供される製品またはアレンジメント」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
@@ -1573,10 +1573,10 @@
 </t>
   </si>
   <si>
-    <t>「1日に何回飲むべきですか？」"</t>
-  </si>
-  <si>
-    <t>特定日に消費される予想数量を特定する。</t>
+    <t>「1日に何回飲むべきですか？」(Ichi-nichi ni nan-kai nomu beki desu ka?)"</t>
+  </si>
+  <si>
+    <t>「特定日に消費される予想数量を特定する。」</t>
   </si>
   <si>
     <t>Allows rough dose checking.</t>
@@ -1591,10 +1591,10 @@
     <t>CarePlan.activity.detail.quantity</t>
   </si>
   <si>
-    <t>どのくらいの量を与える／支給する／消費するのですか？</t>
-  </si>
-  <si>
-    <t>被験者によって供給、投与、消費される予定の数量を特定する。</t>
+    <t>「どのくらいの量を与える／支給する／消費するのですか？」</t>
+  </si>
+  <si>
+    <t>「被験者によって供給、投与、消費される予定の数量を特定する。」</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP][classCode=SPLY].quantity</t>
@@ -1606,10 +1606,10 @@
     <t>CarePlan.activity.detail.description</t>
   </si>
   <si>
-    <t>実施するアクティビティを説明する追加情報</t>
-  </si>
-  <si>
-    <t>これは意図された活動の発生に関する制約のテキスト上の説明を提供し、他の活動との関係を含むことがあります。また、目的、前提条件、終了条件も含まれる場合があります。最後に、場所、方法、経路などの活動に関する詳細を伝えることもできます。</t>
+    <t>「実施するアクティビティを説明する追加情報」</t>
+  </si>
+  <si>
+    <t>「これは意図された活動の発生に関する制約のテキスト上の説明を提供し、他の活動との関係を含むことがあります。また、目的、前提条件、終了条件も含まれる場合があります。最後に、場所、方法、経路などの活動に関する詳細を伝えることもできます。」</t>
   </si>
   <si>
     <t>.text</t>
@@ -1618,10 +1618,10 @@
     <t>CarePlan.note</t>
   </si>
   <si>
-    <t>この計画に対するコメント</t>
-  </si>
-  <si>
-    <t>介護計画についてのその他の項目には含まれていない一般的な注意事項</t>
+    <t>「この計画に対するコメント」</t>
+  </si>
+  <si>
+    <t>「介護計画についてのその他の項目には含まれていない一般的な注意事項」</t>
   </si>
   <si>
     <t>Used to capture information that applies to the plan as a whole that doesn't fit into discrete elements.</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-CarePlan.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-CarePlan.xlsx
@@ -447,7 +447,7 @@
     <t>このリソースが適合を主張するプロファイル</t>
   </si>
   <si>
-    <t>このリソースが準拠すると主張する [StructureDefinition](structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
+    <t>このリソースが準拠すると主張する [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
   </si>
   <si>
     <t>これらの主張が時間の経過に伴って検証または更新される方法と、それらを決定するサーバーや他の基盤に任されます。プロファイルURLのリストは1セットです。</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-CarePlan.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-CarePlan.xlsx
@@ -386,7 +386,7 @@
     <t>CarePlan.meta.versionId</t>
   </si>
   <si>
-    <t>バージョン固有の識別子 (Baajon koyū no shikibetsu-shi)</t>
+    <t xml:space="preserve">バージョン固有の識別子 </t>
   </si>
   <si>
     <t>URLのバージョン部分に表示されるバージョン固有の識別子。この値は、リソースが作成、更新、または削除された場合に変更されます。</t>
@@ -424,7 +424,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
+    <t>「リソースがどこから来たかを特定する」</t>
   </si>
   <si>
     <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
